--- a/offline/variants_data/coldwar_redux/Cold_War_Redux.xlsx
+++ b/offline/variants_data/coldwar_redux/Cold_War_Redux.xlsx
@@ -740,7 +740,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I97" activeCellId="0" sqref="I97"/>
+      <selection pane="topLeft" activeCell="F99" activeCellId="0" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>28</v>
